--- a/nld.xlsx
+++ b/nld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,2896 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9ed6254b99be03c603e942ad9bc098f5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Divya Matta</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9afeefbbb7bc725868b3ff7b991f2ea1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Divya Matta</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Harrison Whitfill</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1293873344f9eb9f4bb62ed790c860db</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>434c907c6ef6f454672264a8e2f3eb9b</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Harrison Whitfill</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6b1b394b62c5badb0d4f90aa7228df49</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c8eab2c100e3b2f128fe014f0db08297</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fa44ae03108a5e2d372c4b6325878c99</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Divya Matta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>48350af7d2fc51592fb67bf8954efd7d</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>76c2255978a2cfbd53dea272a2d56ee6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5745f9e5c024742e320a661576c8d94b</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ac9467ee0a7686307eaddb2f79535f11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Harrison Whitfill</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4d8caa9d687dbdf47c75489ed110e9b9</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Divya Matta</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0d573108acc2a59d251a5f8e0e0d9bf1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>d39e29455d8c6943bd284584b6b45857</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dd494bdeaf868de47dd54a32db369d74</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yash Kulkarni</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Scott Hofmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>38f4e3f9c7a72dd4a0ece0f24b44190f</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anant Kulkarni</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Kailyn Dykert</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>b4166ffa8ac5e3f70688967b35ee0cfd</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>82e154e0606d1411fa620d41904ccc0a</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>e2b3879919c607713fa5b424b75a891c</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rachel Shiery</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6e3a19b077eff399cf6764470b128b32</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jacob Simmons</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kashish Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>d70aaef914423e3acf519527582956af</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Carsten Oyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>02460cf6b7d83df26c67b9b24030785e</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sheyenne Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>f5dee216915a0a93f02bac0920675fcc</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Allison Wilkens</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>de8a7ea5ceca39656d5e848ebab1a0cd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Eco Chavez</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Jaxon Goddard-Westland</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>a6c0dd425ee9ef5b9cbe368923b3b904</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5876f4b954069a64ba02c05303f26c9e</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cynthia Trinidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>72954525be1ed4cef527c5fd273d00d2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Miguel Arteaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>9e75ff1af20b41164e96f9ccfa02f956</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4843cf6a5bd1072435b5786fdc25e1bc</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Allison Wilkens</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>bed27b865bd56ed96f9ace16e7f155a4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Kashish Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>91904a354312476e6ba3fc152e6f804c</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Scott Hofmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>bf4eb1008acc751c8edcea0dd8d8deea</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Carsten Oyer</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>d29de4c908acec75057ccd4e16eac849</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yash Kulkarni</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>77722dea8f2ed9dad2875e74f256de80</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Divya Matta</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>f8947b9b94f4975256a3c605cd33d143</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Harrison Whitfill</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>bebb0d1dc17baed09f646200619bbbd1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jaxon Goddard-Westland</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Anant Kulkarni</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cec9982504bb61755041336e8630c44a</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Kailyn Dykert</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0f1dfdde4fd48e1c6c7d691890c38dcc</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13eecf01859965147af5982498748f72</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jacob Simmons</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cynthia Trinidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>9e15d065b27f47f07ab2970ea6022720</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sheyenne Miller</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rachel Shiery</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>744fac08e7323f7eb3261309233e2c55</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Eco Chavez</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>83a9ee3cc110c5611da4e1261e82f313</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>b408e4924c32139491a99ead86dc6636</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cynthia Trinidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5dd595e2eb0e3a2e61ca85ce6d8bb0fe</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7ed1485190050726232d0cf9110ecbd6</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Scott Hofmann</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Allison Wilkens</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>bee67c967ace09fbaf27636e2de8fb76</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sheyenne Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>61fa75ed52afd0a4efb62ba90c9ae689</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Anant Kulkarni</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>e1d5f72da8ee9b231a2c4458215300c2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Harrison Whitfill</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Yash Kulkarni</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5609fcfd824cc2559c2285fceb8446dd</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Jacob Simmons</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>790c9dafd05df8c76f4bef3fcc43f9f2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kashish Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ac4de044a22bde732c2c1af1a207c82e</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jaxon Goddard-Westland</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Miguel Arteaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>03d51a190412d8e1b855703763d8e119</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rachel Shiery</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>74427bf83e567061cdf28d9e057618ff</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6bd9b27e839da17b7f7d349a170940cb</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Eco Chavez</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>083c6f5573b5a922d3d8933ca8f1cff6</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Carsten Oyer</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>727e1a736408c9fc2941891c836c7b39</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Divya Matta</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>99c1ce666828623e2bfcf171a7f2183e</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4671255ff2672f52bddfa91b3e957622</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Kailyn Dykert</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>47bf688a4123e8c2573c615ce249b37d</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Divya Matta</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rachel Shiery</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2fc7fc4f1b69b3b3ec371830013f8a91</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Eco Chavez</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Cynthia Trinidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>da65371e625c715d5ccd123c3e8d846f</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Jacob Simmons</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ba5f2092c0b7f2632d52f78379fb2123</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sendes Al-Bahathly</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>a0769e238f02f02964bb99de4fe3055f</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Kashish Shah</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>55185005591cd6ff59365b155cf651e1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Yash Kulkarni</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>cf15744cddf4593387a07952ecd102e4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>7dd20c5d32b1797a785bd428df465430</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Harrison Whitfill</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>c938ef1e67db123feb6a79eef4359e71</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Scott Hofmann</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>240c32b45ecc1c822e37cd706c6b6016</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Jaxon Goddard-Westland</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>903c8642ff19d9f5c7818b3f264cf152</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>228e97551a4ca2dad5a142178d25537e</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sheyenne Miller</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>67657ea1f06e28d62cbc51b80a760e43</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Kailyn Dykert</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Miguel Arteaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>67c37f9e3b0a70a851edc4fb35d977ee</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Allison Wilkens</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2843d8caf4ab4ce7fb7f2ba63c2a1f8c</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>cde3a2c8a40bcd8cff02f4866e056432</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Carsten Oyer</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Anant Kulkarni</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2d7fcded77ce370418eb4bcee7d34a61</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>11f95887cb0c636ee7dad57b3d13b5a2</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1311618fccfd565ab902c53096a50c37</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2040ca9e5869bb9554dc128750d3d4bf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1dbe4349fcbec81bafb1b8ce882d8da9</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>a7a35f38876442f492e3399ba00fc109</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>a62bfbd22ba6fe237323cd4fd59e2c23</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Claire Juby</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>9fad07b6c6644f1a64b3559e7eca6ddc</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Jena Dorman</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>dc8bb2b5fb5d1419109371c1d3496f5d</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>b792efec65b66329c4ef8de99d8cdeb5</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Lucas Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>c2be5c0f3bd7fa5a3715bdecf981ddd2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Grant Guldberg</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>33d47a2f71847bb6d699a3f159932758</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cameron Barnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>793fc3f034baacbfafe6cce7c0ed5360</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>dc2a06bda01894c5e586943d49ad0f42</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>fdb52fb9e66cfcce27ca41fe543cdcb5</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1f0d450f8a2631f9cbf29320ff245022</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Claire Juby</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>eeceecdd68ae214164672266c243edd7</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Cameron Barnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>493eea078c255a4d6bece56c19ef3164</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Jena Dorman</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7778a35c452d31f8db62114b69b593a4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>a310d5806e28fc59e525d2bdb274f7ce</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Grant Guldberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>93be5695c8ef82e6a31a2b5ce18804c1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>47148866a46a768080c557428046c641</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Aditi Daga</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2c20933d5522f7093f791d2a5508b817</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>97fc7064884a42b849958da0bc904e15</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Allison Wilkens</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>d844ec75c4c6dab5f1da4e593d52ae52</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Lucas Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>bf6c56f7cc541a6b474af99a52a4c1b7</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>c7b6351244101563d79317774df88cba</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>cfefe92ec08b88cb523cb2267540569f</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>e78200f7ea4d1e7a6df880cccb25a1ce</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>9440872812c80fb2e7e3716271348d53</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Grant Guldberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>c6b1f36594278d1f04ef1a65eb6b3825</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Claire Juby</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>921b0d044d9aeaa07637ef4650b7a837</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Aditi Daga</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ba2cb6b69e6f300aba69b40b6c956dd7</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Lucas Smith</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Cameron Barnes</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>f587dba4db9bdf2fc81581d7010b06f6</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Miguel Arteaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>9c5f9e13cf68409d46663b29f35fc7f5</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Allison Wilkens</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2905baeab0299badbcae9f18ef7df911</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Isabel Matos</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Allison Wilkens</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>955d2f4d2d61b564e34dcd5ba6aacbaa</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Jena Dorman</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>aa81f9c7d579a9268e8b11543bffec92</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Cameron Barnes</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>01f199da4589d5e41e97304039143e47</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Lucas Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4974b8eb3874add7c89b086035ebb3bf</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>7e6955d769adb0a7afbc0ee0db9fe341</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Eleanor Halaby</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Claire Juby</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>c0ca97fbf07b01d92af64e710ab4f974</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Lily Fox</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Alexis Li</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>b9a6961156f7112fd181b0011219f198</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Keshav Chinnakotla</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Miguel Arteaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>d646fa2638572c423d0210edc66ad9ce</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Grant Guldberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7b0d6da1013e25cd72859cfcca66162c</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Matthew Bala</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ec67273a0828b7dbc79726381c562fc9</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>cbdbc6660e815df3d32e2be94a4c3176</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0769d72bc151e4805bea501443ba5847</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Anotida Mafuvadze</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>e208e2c40f32f045c0791cc4dbf9323c</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Sara Steinmetz</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>f1b0d6ee7da7f5b36e146b946908e522</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Anotida Mafuvadze</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>3ed295327d59694ab3df905b5e81770c</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Cayden Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>d357291124219eb6abd86cc2fdde44a5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7a0a7c6e075864066bfa2f7c145d1678</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Anotida Mafuvadze</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>6463dc0af5979ca3448c17784bb55b4a</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Jena Dorman</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3f6e23c0b8c5849a9b484f863b9bc002</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Jack Bell</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Ethan Tripodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>11418dd20e1c1aa613009738030786d9</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>926d9158497ac86168256e8927e6deeb</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Payton Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>cf982b6ec3569307f927b8d34a64a2f3</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Amama Riaz</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Spencer Wright</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>c8ebaf487089d6efe9ab800b176b970b</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Gabe Porter</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ca01f76ca603a1b5816db71307e3837c</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Cayden Chen</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>6277fb4a014c12593617b9ece20833b8</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>b9f43cf25a2c7360eeed1d831e0342b5</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>72f9ea0f28533fabb39de9e060a6f127</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Sara Steinmetz</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>fd0c60042010d7556902e204d711e87f</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cayden Chen</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>e4808aa3c2e7b16fc7e0171a5d396a5c</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>71ec55ccf7fd8397bac17a4a0547df21</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Jack Bell</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>516ad94cd267d1586fdd94b246cb6cdb</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Spencer Wright</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>8883a2d4b9b1b0be861fd5c2e032b98a</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>d4f15b0154b031267f6930a5b59894ff</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Payton Smith</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ethan Tripodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>d15d14337f7e673eb65abf01c43bbc4c</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Amama Riaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>48940f9f9cd5f81203130eb754aed311</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Sara Steinmetz</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Jena Dorman</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>16033f2c042668ca8a1fa469df84e9a1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Anotida Mafuvadze</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>b37d9166947d1a8f132e3f2b5f153a95</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>45ba24d3da363e541787ff8f11a572e4</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Gabe Porter</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>200be4ac2cee9863273ea9753987f9f1</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>6a3cd5bb5a7f1762277f18c191c7b501</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Amama Riaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>853cf88698513f781d1e4129b476d693</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Sara Steinmetz</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>bd297cdf6a1baec038b0cab5077c7376</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Spencer Wright</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>71577579d9eef6ceffc0a0091da8f46e</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Jena Dorman</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Gabe Porter</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>38546481f89b057dacda2ec3d609d2a9</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>6cdc193eb4075d19dfb2ee75896ffe15</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Anotida Mafuvadze</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Chloe Chun</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0dd4640c195525fcd785ce4d5214df6b</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Cayden Chen</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1c9305fb90d72e17f298d22d5c8a8ed3</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Ethan Tripodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>9783c147e0d7aee2ba0e5a2f0a32a375</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Jack Bell</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>3e60d0de5641dcdcf72aab52fd1cdbef</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Payton Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>e0dec0bc70d3e18a1feb7ad6ce8b2bf0</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Spencer Wright</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Sara Steinmetz</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>cc443638a9bcc6896ad6123b29bc20c5</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Amama Riaz</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>305aed61288239727ef041891a47c74e</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Finnegan Roffler</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Ethan Tripodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>e0cf1a5fdc3cf3d4cab7f24dd81d67bb</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Joesh Jhaj</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sakshi Khidake</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>f4581f2f4261ab5c3d3d1334537741eb</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Leela Raj-Sankar</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rachel Shiery</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>5979cd12fddd44b26ef46f7d2d7f489a</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Anotida Mafuvadze</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Gabrielle Vines</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>302c6ad57ebc4ebcbf32a98db2e9da5c</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Alexander Brown</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mrida Igoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>24a6209b93802b31b4c11bbd05421525</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Aunik Ghosal</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Gabe Porter</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>90d70743de63554dec8aeaa2d4d94441</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Gowri Biju</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Jena Dorman</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>e1659c98edbdd9ba6e4f4b515507db6a</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Joshua Carter</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Payton Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1eae54503dbd086337756c12d32e480a</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Cayden Chen</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Jack Bell</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
